--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_acc_10.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_acc_10.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="126">
   <si>
     <t>VDATE</t>
   </si>
@@ -331,9 +331,6 @@
     <t>K+TP</t>
   </si>
   <si>
-    <t>EUR</t>
-  </si>
-  <si>
     <t>FCC12</t>
   </si>
   <si>
@@ -379,27 +376,6 @@
     <t>00615001RURCL0P00272</t>
   </si>
   <si>
-    <t>00619434</t>
-  </si>
-  <si>
-    <t>521_A087C_18</t>
-  </si>
-  <si>
-    <t>00619434RURCL0P00083</t>
-  </si>
-  <si>
-    <t>093</t>
-  </si>
-  <si>
-    <t>00642418</t>
-  </si>
-  <si>
-    <t>521_A182C_18</t>
-  </si>
-  <si>
-    <t>00642418RURCL0P00117</t>
-  </si>
-  <si>
     <t>00687485</t>
   </si>
   <si>
@@ -457,24 +433,6 @@
     <t>00045391</t>
   </si>
   <si>
-    <t>00131135</t>
-  </si>
-  <si>
-    <t>00682004</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>00680870</t>
-  </si>
-  <si>
-    <t>00642422</t>
-  </si>
-  <si>
-    <t>00080956</t>
-  </si>
-  <si>
     <t>021</t>
   </si>
   <si>
@@ -506,24 +464,6 @@
   </si>
   <si>
     <t>06013511RURCOSA101</t>
-  </si>
-  <si>
-    <t>098</t>
-  </si>
-  <si>
-    <t>06013419</t>
-  </si>
-  <si>
-    <t>441020300</t>
-  </si>
-  <si>
-    <t>06013419EURIETR101</t>
-  </si>
-  <si>
-    <t>441020200</t>
-  </si>
-  <si>
-    <t>06013419EURIECA301</t>
   </si>
   <si>
     <t>5 символов (цифры)</t>
@@ -1493,11 +1433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,19 +1485,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
       <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
         <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" t="s">
-        <v>89</v>
       </c>
       <c r="F2" t="s">
         <v>72</v>
@@ -1566,13 +1506,13 @@
         <v>73</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
         <v>90</v>
-      </c>
-      <c r="J2" t="s">
-        <v>91</v>
       </c>
       <c r="K2" s="22">
         <v>43283</v>
@@ -1580,19 +1520,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>93</v>
       </c>
       <c r="F3" t="s">
         <v>72</v>
@@ -1601,13 +1541,13 @@
         <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
         <v>94</v>
-      </c>
-      <c r="J3" t="s">
-        <v>95</v>
       </c>
       <c r="K3" s="22">
         <v>43283</v>
@@ -1615,54 +1555,52 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>73</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" t="s">
-        <v>98</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="J4"/>
       <c r="K4" s="22">
         <v>43283</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="F5" t="s">
         <v>72</v>
@@ -1671,486 +1609,197 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J5" t="s">
-        <v>102</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="J5"/>
       <c r="K5" s="22">
         <v>43283</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="J6"/>
-      <c r="K6" s="22">
-        <v>43283</v>
-      </c>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="J7"/>
-      <c r="K7" s="22">
-        <v>43283</v>
-      </c>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
         <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>142</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="I8"/>
       <c r="J8"/>
-      <c r="K8" s="22">
-        <v>43283</v>
-      </c>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="J9"/>
-      <c r="K9" s="22">
-        <v>43283</v>
-      </c>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
         <v>72</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="22"/>
+      <c r="K10" s="22">
+        <v>43280</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s">
-        <v>111</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="I11"/>
       <c r="J11"/>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>118</v>
-      </c>
-      <c r="J13"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" t="s">
-        <v>121</v>
-      </c>
-      <c r="D15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G19" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19" s="22">
-        <v>43280</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20" s="22">
+      <c r="K11" s="22">
         <v>43280</v>
       </c>
     </row>
@@ -2329,7 +1978,7 @@
         <v>45</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>48</v>

--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_acc_10.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/example_acc_10.xlsx
@@ -1437,7 +1437,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,13 +1462,13 @@
         <v>64</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>50</v>
@@ -1497,13 +1497,13 @@
         <v>85</v>
       </c>
       <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
         <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" t="s">
-        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>84</v>
@@ -1532,13 +1532,13 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" t="s">
         <v>92</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" t="s">
-        <v>73</v>
       </c>
       <c r="H3" t="s">
         <v>84</v>
@@ -1567,13 +1567,13 @@
         <v>116</v>
       </c>
       <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
         <v>117</v>
-      </c>
-      <c r="F4" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>73</v>
       </c>
       <c r="H4" t="s">
         <v>80</v>
@@ -1600,13 +1600,13 @@
         <v>122</v>
       </c>
       <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
         <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>73</v>
       </c>
       <c r="H5" t="s">
         <v>80</v>
@@ -1633,13 +1633,13 @@
         <v>96</v>
       </c>
       <c r="E6" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
         <v>97</v>
-      </c>
-      <c r="F6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" t="s">
-        <v>73</v>
       </c>
       <c r="H6" t="s">
         <v>98</v>
@@ -1664,13 +1664,13 @@
         <v>101</v>
       </c>
       <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
         <v>102</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" t="s">
-        <v>73</v>
       </c>
       <c r="H7" t="s">
         <v>74</v>
@@ -1695,13 +1695,13 @@
         <v>105</v>
       </c>
       <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
         <v>106</v>
-      </c>
-      <c r="F8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>73</v>
       </c>
       <c r="H8" t="s">
         <v>74</v>
@@ -1724,13 +1724,13 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
         <v>109</v>
-      </c>
-      <c r="F9" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" t="s">
-        <v>73</v>
       </c>
       <c r="H9" t="s">
         <v>74</v>
@@ -1755,13 +1755,13 @@
         <v>77</v>
       </c>
       <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
         <v>112</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>79</v>
@@ -1786,13 +1786,13 @@
         <v>77</v>
       </c>
       <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>112</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
       </c>
       <c r="H11" t="s">
         <v>79</v>
